--- a/Historical Papers/Collections/MCH173.xlsx
+++ b/Historical Papers/Collections/MCH173.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="132" yWindow="504" windowWidth="18876" windowHeight="9732"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="347">
   <si>
     <t>identifier</t>
   </si>
@@ -35,29 +38,1052 @@
   </si>
   <si>
     <t>file_path</t>
+  </si>
+  <si>
+    <t>MCH173-1</t>
+  </si>
+  <si>
+    <t>BOOKS</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>1 Box</t>
+  </si>
+  <si>
+    <t>LOCATION: 22D | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-2</t>
+  </si>
+  <si>
+    <t>BOOKS &amp; DOCUMENTS, LEAFLETS, LEIDEN LOGEN, APARTHEID &amp; "FAKKELTOCT,</t>
+  </si>
+  <si>
+    <t>MCH173-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APARTHEID  </t>
+  </si>
+  <si>
+    <t>MCH173-4</t>
+  </si>
+  <si>
+    <t>PUBLICATION</t>
+  </si>
+  <si>
+    <t>MCH173-5</t>
+  </si>
+  <si>
+    <t>MCH173-6</t>
+  </si>
+  <si>
+    <t>POSTERS</t>
+  </si>
+  <si>
+    <t>MCH173-7</t>
+  </si>
+  <si>
+    <t>PUBLICATIONS</t>
+  </si>
+  <si>
+    <t>MCH173-8</t>
+  </si>
+  <si>
+    <t>MCH173-9</t>
+  </si>
+  <si>
+    <t>BOOKS &amp; documents, OVER MY DEAD BODY, DOCUMENTATIEFMAP, PERS GEEN ZUID AFRIKAAN UIT</t>
+  </si>
+  <si>
+    <t>MCH173-10</t>
+  </si>
+  <si>
+    <t>NEWSPAPER CLIPPINGS, PUBLICATIONS</t>
+  </si>
+  <si>
+    <t>MCH173-11</t>
+  </si>
+  <si>
+    <t>BOOK &amp; DOCUMENTS, GRONDEVERDELING ONDER APARTHEID, EEN DUIDELIJK SIGNAAL, HETZARTE VERZET VOOR EN NA SOWETO</t>
+  </si>
+  <si>
+    <t>LOCATION: 22E | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-12</t>
+  </si>
+  <si>
+    <t>BOOKS AND DOCUMENTS, ZUID-AFRIKA DE TOEKOMST BEGON GISTEREN, VAN EGYPTE TOT ZUID-AFRIKA, RACISM OP DE WERKVLOER</t>
+  </si>
+  <si>
+    <t>MCH173-13</t>
+  </si>
+  <si>
+    <t>BOOKS &amp; DOCUMENTS, STEDENAKTIES</t>
+  </si>
+  <si>
+    <t>MCH173-14</t>
+  </si>
+  <si>
+    <t>BOOKS &amp; DOCUMENTS. ZUID-AFRIKA VOOR SCHOLIEREN</t>
+  </si>
+  <si>
+    <t>MCH173-15</t>
+  </si>
+  <si>
+    <t>BOOKS &amp; DOCUMENTS, PERSPEKTIEF</t>
+  </si>
+  <si>
+    <t>MCH173-16</t>
+  </si>
+  <si>
+    <t>MCH173-17</t>
+  </si>
+  <si>
+    <t>BOOKS &amp; DOCUMENTS, VERBODEN VRUCHTENN PERS ONDER APARTHEID</t>
+  </si>
+  <si>
+    <t>MCH173-18</t>
+  </si>
+  <si>
+    <t>BOOKS &amp; DOCUMENTS, GEZONDHEIDSZORG</t>
+  </si>
+  <si>
+    <t>MCH173-19</t>
+  </si>
+  <si>
+    <t>ONDERWYS, DIVERSEN, VAKTOODEN, SCHOOL PROJEK TEN BASTS</t>
+  </si>
+  <si>
+    <t>MCH173-20</t>
+  </si>
+  <si>
+    <t>BOOKS &amp; DOCUMENTS, OUTSPAN: BOUWSTENEN VOOR APARTHEID</t>
+  </si>
+  <si>
+    <t>MCH173-21</t>
+  </si>
+  <si>
+    <t>BOOKS &amp; DOCUMENTS, AMANDLA, BOA- BELGIE", KAIROS, KZA</t>
+  </si>
+  <si>
+    <t>LOCATION: 22F | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-22</t>
+  </si>
+  <si>
+    <t>GEZONDHEIDSZORG, IMWOO BULLETIN, BASIS ONDERWYS, KERKEN</t>
+  </si>
+  <si>
+    <t>MCH173-23</t>
+  </si>
+  <si>
+    <t>MCH173-24</t>
+  </si>
+  <si>
+    <t>MCH173-25</t>
+  </si>
+  <si>
+    <t>BOOKS &amp; DOCUMENTS</t>
+  </si>
+  <si>
+    <t>MCH173-26</t>
+  </si>
+  <si>
+    <t>FLYERS</t>
+  </si>
+  <si>
+    <t>MCH173-27</t>
+  </si>
+  <si>
+    <t>MCH173-28</t>
+  </si>
+  <si>
+    <t>NCO- PROJEKTON 1974-1979, BOOKS &amp; DOCUMENTS</t>
+  </si>
+  <si>
+    <t>1974-1979</t>
+  </si>
+  <si>
+    <t>MCH173-29</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICAN NEWSPAPERS, APARTHEID &amp; RACISME</t>
+  </si>
+  <si>
+    <t>MCH173-30</t>
+  </si>
+  <si>
+    <t>MCH173-31</t>
+  </si>
+  <si>
+    <t>BULLETIN 1975</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>LOCATION: 22G | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-32</t>
+  </si>
+  <si>
+    <t>BULLETIN 1976-78</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>MCH173-33</t>
+  </si>
+  <si>
+    <t>BULLETIN 1973-74</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>MCH173-34</t>
+  </si>
+  <si>
+    <t>LEEUW ARDEN GRON INGEN</t>
+  </si>
+  <si>
+    <t>MCH173-35</t>
+  </si>
+  <si>
+    <t>ALG. PUBL. AKTIE VERSLAGEN, MATERIAL STEDENAKTIES 1985</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>MCH173-36</t>
+  </si>
+  <si>
+    <t>DONATEURS- AKTIE 1985</t>
+  </si>
+  <si>
+    <t>MCH173-37</t>
+  </si>
+  <si>
+    <t>ZUID- AFRIKA NEWS 1989, DE ANTI- APARTHEID KRANT 1978-80'S</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>MCH173-38</t>
+  </si>
+  <si>
+    <t>BREDA GOES</t>
+  </si>
+  <si>
+    <t>MCH173-39</t>
+  </si>
+  <si>
+    <t>ROTTERDAM 1981-91</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>MCH173-40</t>
+  </si>
+  <si>
+    <t>NIJMEGEN, HILVERSUM</t>
+  </si>
+  <si>
+    <t>MCH173-41</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN ALGEMEEN 1975-1976</t>
+  </si>
+  <si>
+    <t>1975-1976</t>
+  </si>
+  <si>
+    <t>LOCATION: 22H | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-42</t>
+  </si>
+  <si>
+    <t>YMOND, GELEEN, HEERLEN</t>
+  </si>
+  <si>
+    <t>MCH173-43</t>
+  </si>
+  <si>
+    <t>NCO- PROJEKTON 1979-81</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>MCH173-44</t>
+  </si>
+  <si>
+    <t>NOTULEN 1977--78</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>MCH173-45</t>
+  </si>
+  <si>
+    <t>ALPHEN, ZOETER- WOUDE</t>
+  </si>
+  <si>
+    <t>MCH173-46</t>
+  </si>
+  <si>
+    <t>BERGEN OP ZOOM , TILBURG</t>
+  </si>
+  <si>
+    <t>MCH173-47</t>
+  </si>
+  <si>
+    <t>POOSMDAAL ARNHEM</t>
+  </si>
+  <si>
+    <t>MCH173-48</t>
+  </si>
+  <si>
+    <t>LYS TEN VOOR KRANTEN, TIJDSCHRIFT, ARCHIEF, PERSBERICHTEN 1987-92</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>MCH173-49</t>
+  </si>
+  <si>
+    <t>APARTHEID MADE IN EUROPE, STUKKEN DOM CEDRIC MAYSON</t>
+  </si>
+  <si>
+    <t>MCH173-50</t>
+  </si>
+  <si>
+    <t>UITGESTUURDE STUKKEN, BINNENLAND 1976-1978</t>
+  </si>
+  <si>
+    <t>1976-1978</t>
+  </si>
+  <si>
+    <t>MCH173-51</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN BUITENLAND 1979</t>
+  </si>
+  <si>
+    <t>LOCATION: 22I | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-52</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN BUITENLAND OUTSPAN NR. 1 1976</t>
+  </si>
+  <si>
+    <t>MCH173-53</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN BUITENLAND 1977</t>
+  </si>
+  <si>
+    <t>MCH173-54</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN BINNENLAND 1977</t>
+  </si>
+  <si>
+    <t>MCH173-55</t>
+  </si>
+  <si>
+    <t>NOTULEN &amp; TAKENLGSTEN 1982-1985</t>
+  </si>
+  <si>
+    <t>1982-1985</t>
+  </si>
+  <si>
+    <t>MCH173-56</t>
+  </si>
+  <si>
+    <t>NOTULEN TAKENLGSTEN 1986-89</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>MCH173-57</t>
+  </si>
+  <si>
+    <t>AFFICHES KAN, BOA- AKTIES ON VAN ANDERE ORGANIZENTIES</t>
+  </si>
+  <si>
+    <t>MCH173-58</t>
+  </si>
+  <si>
+    <t>VLAARDINGEN</t>
+  </si>
+  <si>
+    <t>MCH173-59</t>
+  </si>
+  <si>
+    <t>UITGESTUURDE STUKKEN BINNENLAND 1979-84</t>
+  </si>
+  <si>
+    <t>MCH173-60</t>
+  </si>
+  <si>
+    <t>UITGESTUURDE POST 1973-75</t>
+  </si>
+  <si>
+    <t>MCH173-61</t>
+  </si>
+  <si>
+    <t>FRANKFURTER BUCHMESSE, BOA- KARAVAAN 1978, BOA- ZWEDEN, COP- FRANKRYK</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>LOCATION: 22J | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-62</t>
+  </si>
+  <si>
+    <t>AKTIETORNEE B 1979</t>
+  </si>
+  <si>
+    <t>MCH173-63</t>
+  </si>
+  <si>
+    <t>KONGRESS, LEIDEN 1977, ZEILLE MARK, ABASE BENZI</t>
+  </si>
+  <si>
+    <t>MCH173-64</t>
+  </si>
+  <si>
+    <t>NCI- 1990, LEIDEN 1992, STUKKEN 1978</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>MCH173-65</t>
+  </si>
+  <si>
+    <t>ACTIVITEITEN LEIDEN 1985-88</t>
+  </si>
+  <si>
+    <t>MCH173-66</t>
+  </si>
+  <si>
+    <t>LEIDEN 1991, D. WAAG: BEUW 1990-1991</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>MCH173-67</t>
+  </si>
+  <si>
+    <t>AMANDLA, NOTULEN &amp; KORR ETC 1987-1992</t>
+  </si>
+  <si>
+    <t>1987-1992</t>
+  </si>
+  <si>
+    <t>MCH173-68</t>
+  </si>
+  <si>
+    <t>AMANDLA, KORR. NOT. 1977-78</t>
+  </si>
+  <si>
+    <t>MCH173-69</t>
+  </si>
+  <si>
+    <t>AMANDLA 1977-81</t>
+  </si>
+  <si>
+    <t>MCH173-70</t>
+  </si>
+  <si>
+    <t>AMANDLA, KORR. NOTULEN 1979-81</t>
+  </si>
+  <si>
+    <t>MCH173-71</t>
+  </si>
+  <si>
+    <t>AMANDLA AUG 1981, DEC 1985</t>
+  </si>
+  <si>
+    <t>LOCATION: 22K | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-72</t>
+  </si>
+  <si>
+    <t>AMANDLA KORR, NOT 1982-86</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>MCH173-73</t>
+  </si>
+  <si>
+    <t>AMANDLA JAN 1986, DEC 1989</t>
+  </si>
+  <si>
+    <t>MCH173-74</t>
+  </si>
+  <si>
+    <t>AMANDLA 1989-92</t>
+  </si>
+  <si>
+    <t>MCH173-75</t>
+  </si>
+  <si>
+    <t>KARAVAAN KORRESPONDEN TIE N.A.V DE AKTIE 1978</t>
+  </si>
+  <si>
+    <t>MCH173-76</t>
+  </si>
+  <si>
+    <t>KARAVAAN KORRESPONDEN TIE T/ MDE AKTIE, ADRESSEN AFGESLPTEN 1978</t>
+  </si>
+  <si>
+    <t>MCH173-77</t>
+  </si>
+  <si>
+    <t>INGEKOMEN POST 1973-74</t>
+  </si>
+  <si>
+    <t>MCH173-78</t>
+  </si>
+  <si>
+    <t>INGEKOMEN EN UITGESTUURDE STUKKEN NR. 7 1976, NOTULEN DEC 71-72, 75</t>
+  </si>
+  <si>
+    <t>MCH173-79</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN BINNENLAND 1977 II</t>
+  </si>
+  <si>
+    <t>MCH173-80</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN BINNENLAND 1978 I</t>
+  </si>
+  <si>
+    <t>MCH173-81</t>
+  </si>
+  <si>
+    <t>KORR. BINNENLAND 1989-90</t>
+  </si>
+  <si>
+    <t>LOCATION: 22L | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-82</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN BUITENLAND 1978</t>
+  </si>
+  <si>
+    <t>MCH173-83</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN BUITENLAND 1980-84</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>MCH173-84</t>
+  </si>
+  <si>
+    <t>KORR. BUITENLAND 1987-89</t>
+  </si>
+  <si>
+    <t>MCH173-85</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN NEDERLAND 1979 I</t>
+  </si>
+  <si>
+    <t>MCH173-86</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN NEDERLAND 1980</t>
+  </si>
+  <si>
+    <t>MCH173-87</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN NEDERLAND 1980 II</t>
+  </si>
+  <si>
+    <t>MCH173-88</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN NEDERLAND 1981 I</t>
+  </si>
+  <si>
+    <t>MCH173-89</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN NEDERLAND 1982 I</t>
+  </si>
+  <si>
+    <t>MCH173-90</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN NEDERLAND 1983-84 II</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>MCH173-91</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN NEDERLAND 1985 NR. 3</t>
+  </si>
+  <si>
+    <t>LOCATION: 22M | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-92</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN NEDERLAND 1986-87 NR.4</t>
+  </si>
+  <si>
+    <t>MCH173-93</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN NEDERLAND VANAF REPT. 1987, F/M 1988 NR. 5</t>
+  </si>
+  <si>
+    <t>MCH173-94</t>
+  </si>
+  <si>
+    <t>AKTIE VERSLAAGEN &amp; STUKKEN TOERISME, INGEKOMEN STUKKEN 1974 ALGEMEEN (OUTSPAN)</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>MCH173-95</t>
+  </si>
+  <si>
+    <t>INGEKOMEN STUKKEN NEDERLAND 1978-79 II</t>
+  </si>
+  <si>
+    <t>MCH173-96</t>
+  </si>
+  <si>
+    <t>RACISME EN ONDERWYS 33A</t>
+  </si>
+  <si>
+    <t>MCH173-97</t>
+  </si>
+  <si>
+    <t>ONDERWYS B1</t>
+  </si>
+  <si>
+    <t>MCH173-98</t>
+  </si>
+  <si>
+    <t>ONDERWYS TEGEN APARTHEID (LEIDEN 7: APARTHEID)</t>
+  </si>
+  <si>
+    <t>MCH173-99</t>
+  </si>
+  <si>
+    <t>ONDERWYS 1C</t>
+  </si>
+  <si>
+    <t>MCH173-100</t>
+  </si>
+  <si>
+    <t>ONDERWYS PROJECTEN, LEIDERDORP</t>
+  </si>
+  <si>
+    <t>MCH173-101</t>
+  </si>
+  <si>
+    <t>ONDERWYS BASIS</t>
+  </si>
+  <si>
+    <t>LOCATION: 22N | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-102</t>
+  </si>
+  <si>
+    <t>VAKBONDEN ONDERWYS MATERIAL STEDENAKTIES 1985</t>
+  </si>
+  <si>
+    <t>MCH173-103</t>
+  </si>
+  <si>
+    <t>ONDERWYS, SCHOLIEREN- KRANTEN, KINDERKRANT, KINDERKRANT TEKEN APARTHEID</t>
+  </si>
+  <si>
+    <t>MCH173-104</t>
+  </si>
+  <si>
+    <t>NOTULEN SEPT. 1980, JAN. 1982</t>
+  </si>
+  <si>
+    <t>MCH173-105</t>
+  </si>
+  <si>
+    <t>NOTULEN JAN. 1979, AUG. 1980</t>
+  </si>
+  <si>
+    <t>MCH173-106</t>
+  </si>
+  <si>
+    <t>NIEUWS BELGIE 1975-81</t>
+  </si>
+  <si>
+    <t>MCH173-107</t>
+  </si>
+  <si>
+    <t>DORDRECHT OEGSTGEEST</t>
+  </si>
+  <si>
+    <t>MCH173-108</t>
+  </si>
+  <si>
+    <t>LEIDEN TEGEN APARTHEID, WITGESPLITST OP DOELGROEPEN</t>
+  </si>
+  <si>
+    <t>MCH173-109</t>
+  </si>
+  <si>
+    <t>TAPES</t>
+  </si>
+  <si>
+    <t>MCH173-110</t>
+  </si>
+  <si>
+    <t>ROERMOND VENLO</t>
+  </si>
+  <si>
+    <t>MCH173-111</t>
+  </si>
+  <si>
+    <t>KORR. KOMENDE STEDENAKTIES, LANDELGK EVERLEG 1985</t>
+  </si>
+  <si>
+    <t>LOCATION: 22O | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-112</t>
+  </si>
+  <si>
+    <t>ZUID AFRIKA (ST. MOEDER) &amp; KOERIER 1990</t>
+  </si>
+  <si>
+    <t>MCH173-113</t>
+  </si>
+  <si>
+    <t>SCHOOL MATERIAAL</t>
+  </si>
+  <si>
+    <t>MCH173-114</t>
+  </si>
+  <si>
+    <t>ZUID AFRIKA PROJEKT, I.S.M LEIDSE GEMEENTE, DIVERSEN/ KOPIEEN 1979</t>
+  </si>
+  <si>
+    <t>MCH173-115</t>
+  </si>
+  <si>
+    <t>AKTIEVER SLAGEN MATERIALS E.D</t>
+  </si>
+  <si>
+    <t>MCH173-116</t>
+  </si>
+  <si>
+    <t>BOA- PERSPEKTIEF 1982 NR. 1</t>
+  </si>
+  <si>
+    <t>MCH173-117</t>
+  </si>
+  <si>
+    <t>NOTULEN LEIDERDORP 1984-92</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>MCH173-118</t>
+  </si>
+  <si>
+    <t>HOOGEVEEN, ENSCHEDE</t>
+  </si>
+  <si>
+    <t>MCH173-119</t>
+  </si>
+  <si>
+    <t>KULTUUR KERKEN, POLITIEKE, PARTYEN STEDEN AKTERIAAL 1985</t>
+  </si>
+  <si>
+    <t>MCH173-120</t>
+  </si>
+  <si>
+    <t>SAMSAM, NUMMERG 1986, RACISME NR.10 1982, NR.2 1984, EDUCATIEF WERK EN DE DERDE WERELD BEWEGING</t>
+  </si>
+  <si>
+    <t>MCH173-121</t>
+  </si>
+  <si>
+    <t>DEN HAAG, NOORDWIGK</t>
+  </si>
+  <si>
+    <t>LOCATION: 22P | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-122</t>
+  </si>
+  <si>
+    <t>TENTOON- STELLING</t>
+  </si>
+  <si>
+    <t>MCH173-123</t>
+  </si>
+  <si>
+    <t>OSS</t>
+  </si>
+  <si>
+    <t>MCH173-124</t>
+  </si>
+  <si>
+    <t>ADM. 77-78, KATWYK TULIP, MENSEN- RECHTEN, LEIDEN, NUKLEAIRE KOLLABORATIE 1982</t>
+  </si>
+  <si>
+    <t>MCH173-125</t>
+  </si>
+  <si>
+    <t>FRANCE, SWEDEN, GERMANY, PALESTINE</t>
+  </si>
+  <si>
+    <t>MCH173-126</t>
+  </si>
+  <si>
+    <t>KOPIEEN EN ORIGENEIN, INTERVIEWS E.D, I.V.M</t>
+  </si>
+  <si>
+    <t>MCH173-127</t>
+  </si>
+  <si>
+    <t>MAASTRICHT EINDHOVEN</t>
+  </si>
+  <si>
+    <t>MCH173-128</t>
+  </si>
+  <si>
+    <t>AKTIETOERNEE 1979, GEZONDHEIDSZORG IN ZUID AFRIKA 1986</t>
+  </si>
+  <si>
+    <t>MCH173-129</t>
+  </si>
+  <si>
+    <t>BULLETIN, AKTIEBULLETIN NR.9 1979, ABASEBENZI 1978</t>
+  </si>
+  <si>
+    <t>MCH173-130</t>
+  </si>
+  <si>
+    <t>DELFT</t>
+  </si>
+  <si>
+    <t>MCH173-131</t>
+  </si>
+  <si>
+    <t>MAYIBUYE FINANCE &amp; KORRESPONDTIE, SACTU</t>
+  </si>
+  <si>
+    <t>LOCATION: 23A | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-132</t>
+  </si>
+  <si>
+    <t>CULEMBORG, ZWOLLE, WOERDEN, APELDOORN</t>
+  </si>
+  <si>
+    <t>MCH173-133</t>
+  </si>
+  <si>
+    <t>FOCUS &amp; STUKKEN IDAF</t>
+  </si>
+  <si>
+    <t>MCH173-134</t>
+  </si>
+  <si>
+    <t>NCO- RAAD VAN STATE 1983, 1986-89</t>
+  </si>
+  <si>
+    <t>MCH173-135</t>
+  </si>
+  <si>
+    <t>ZOETERMEER</t>
+  </si>
+  <si>
+    <t>MCH173-136</t>
+  </si>
+  <si>
+    <t>GOUDA, ASSEN</t>
+  </si>
+  <si>
+    <t>MCH173-137</t>
+  </si>
+  <si>
+    <t>SITTARD</t>
+  </si>
+  <si>
+    <t>MCH173-138</t>
+  </si>
+  <si>
+    <t>DEN BOSCH, HAARLEM</t>
+  </si>
+  <si>
+    <t>MCH173-139</t>
+  </si>
+  <si>
+    <t>NCO 1991</t>
+  </si>
+  <si>
+    <t>MCH173-140</t>
+  </si>
+  <si>
+    <t>DEVENTER</t>
+  </si>
+  <si>
+    <t>MCH173-141</t>
+  </si>
+  <si>
+    <t>BINNENLAND 1990-92, BUITENLAND 1980'S</t>
+  </si>
+  <si>
+    <t>LOCATION: 23B | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-142</t>
+  </si>
+  <si>
+    <t>LEIDEN, BOA- DOKUMENTEN</t>
+  </si>
+  <si>
+    <t>MCH173-143</t>
+  </si>
+  <si>
+    <t>PUBLICATIONS ON ANGOLA, MOZAMBIQUE, ZIMBABWE, SOUTHERN AFRICA GENERAL</t>
+  </si>
+  <si>
+    <t>MCH173-144</t>
+  </si>
+  <si>
+    <t>MCH173-145</t>
+  </si>
+  <si>
+    <t>MCH173-146</t>
+  </si>
+  <si>
+    <t>MCH173-147</t>
+  </si>
+  <si>
+    <t>MCH173-148</t>
+  </si>
+  <si>
+    <t>MCH173-149</t>
+  </si>
+  <si>
+    <t>MCH173-150</t>
+  </si>
+  <si>
+    <t>MCH173-151</t>
+  </si>
+  <si>
+    <t>LOCATION: 23C | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-152</t>
+  </si>
+  <si>
+    <t>MCH173-153</t>
+  </si>
+  <si>
+    <t>MCH173-154</t>
+  </si>
+  <si>
+    <t>MCH173-155</t>
+  </si>
+  <si>
+    <t>MCH173-156</t>
+  </si>
+  <si>
+    <t>MCH173-157</t>
+  </si>
+  <si>
+    <t>6 SCRAP BOOKS</t>
+  </si>
+  <si>
+    <t>MCH173-158</t>
+  </si>
+  <si>
+    <t>7 SCRAP BOOKS</t>
+  </si>
+  <si>
+    <t>LOCATION: 23D | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH173-159</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -65,7 +1091,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -75,33 +1101,39 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -291,28 +1323,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.0"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="15.38"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -356,7 +1391,2987 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>